--- a/gustos/data/gustos_ari.xlsx
+++ b/gustos/data/gustos_ari.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\proyecto_ari\gustos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\proyecto_ari2\gustos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2DAB7-7E32-42F0-8A9B-24D02BAF9184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94103DE1-A1EB-4F48-9F9C-58A5611C222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="135">
   <si>
     <t>Ñoquis</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Crits</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -271,6 +268,168 @@
   </si>
   <si>
     <t>ari@gmail.com</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/05/33/02/053302a9710640c0d1c1a93b6801ead8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/40/3b/a1/403ba17b3964443d96793cfe17f7cda2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/fe/b4/85/feb4859d4a0877419aae1d90bb6b751c.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/59/18/f0/5918f009fcafa61fe12e415cc6c119b1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/36/39/31/3639310bf908ef27ac960fcd8887debe.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/e0/b1/dc/e0b1dca743f44e3cd4d57cf80ec5b62d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/b4/dc/2d/b4dc2d12cf001d685b0f477693785434.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/a0/07/54/a00754e31712da33038b79bc373e6f9d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/56/cf/a2/56cfa233aca065e52bb6895bd7b036f6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/e5/86/d8/e586d82542d644d9a86723b0fe25d953.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/ee/e2/98/eee298708a1634c6b92b9564d17c5f77.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/27/0c/80/270c80ce3e35d4c8ebbce58741a9742f.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/9f/96/20/9f96206ab8febcea4abd1d9aa07c50be.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/0d/08/62/0d086229ee22ac71522c7de7991fb4c1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/f1/55/71/f1557119bc2490f7e8156b6a78f81503.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/57/78/d5/5778d5c2e0a6e868ce953801f98158fb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/03/f6/4b/03f64bc7578a0de3fe2a1d509f07669b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/c4/05/14/c40514ac5c23ede90c4e8b2db6d2500b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/d0/25/2f/d0252f8d01cd4f47d038933aedfa37ff.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/66/34/5f/66345faaa0071bac935c2a13b22ddc54.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/bb/44/1c/bb441c25ff9f2eb5ef0597bc116342f5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/35/ef/2c/35ef2c9d00e144d41c2214428929aac0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/ae/b7/86/aeb78646ae104fa01e6b65e9f95171cb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/8b/15/fa/8b15fafecb436d0f6deea8b2ad6d3aca.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/d9/69/66/d96966303abae5d5bbf7e3c58f2952ad.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/73/de/05/73de05d4ed1f6ac33211253b040903ff.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/b6/ae/23/b6ae235ca3d9052cb54cd447df71ce9e.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/f4/d6/47/f4d647fe8e4947c05fd8e205b5ecb5c0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/77/7f/26/777f262704bb6947c9f805d00061e332.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/fb/48/18/fb4818993c9c40ae96fa56856654e74a.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/a2/0a/18/a20a18c77e86b5f0653bed285aa249e5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/59/19/5b/59195bddf12c14472ae9caab34ad663d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/eb/44/d6/eb44d652b8e53aa337be9e40f10f426f.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/f0/05/f0/f005f009263845edbd510b673bfa957b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/98/25/d4/9825d4a63b70954e3794809eb5a25d11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/8d/c8/e6/8dc8e61ca635ca2173f61d2a1ec57ddb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/14/15/03/1415034994d2f1c347a369c97ebfcc41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/29/80/e2/2980e29775024683598ce44c9828ec07.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/bf/89/3f/bf893ff835c925dcbf4f78b6f13fcfe1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/c3/cb/3c/c3cb3cf946e42e6f65512c1b87e771ab.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/b6/27/c2/b627c2ca07d303d4355e533165670b63.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/8d/16/11/8d16116e1f6484ad05c63c08a48b54f2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/11/ca/f1/11caf177ef41c72d4cfb0f2fa788be8e.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/77/fc/b0/77fcb00b57eced74806aa1588bb2c976.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/9d/88/3b/9d883b5a8d8423824c1b9005aa0c0bfa.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/67/3e/81/673e8140da9ddb9109d20a17613cc8bf.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/89/38/d3/8938d31b3c182eb867ccec9121932d71.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/1c/ca/3e/1cca3e45efafe25871996c50f8a331ac.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/7d/2d/0d/7d2d0d11a467814af3e4f2f2287ac306.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/e9/3d/89/e93d890ff6940c7c9d7da491019084b8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/76/40/92/764092d481e66dcac99e3b8e41f58d9b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/cd/1d/8f/cd1d8fcbfe1934f9d21eda80bbec57ba.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/33/07/bd/3307bdda3fcad3e09ea397fff0dc9542.jpg</t>
   </si>
 </sst>
 </file>
@@ -634,7 +793,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,31 +809,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -696,10 +855,12 @@
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -719,10 +880,12 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -744,10 +907,12 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -767,10 +932,12 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -792,10 +959,12 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -815,10 +984,12 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -838,10 +1009,12 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -861,10 +1034,12 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -886,10 +1061,12 @@
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -909,10 +1086,12 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -932,10 +1111,12 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -955,10 +1136,12 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -978,10 +1161,12 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1001,10 +1186,12 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1024,10 +1211,12 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1049,10 +1238,12 @@
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1072,10 +1263,12 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1095,10 +1288,12 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1118,10 +1313,12 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1141,10 +1338,12 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1164,10 +1363,12 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1187,10 +1388,12 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1210,10 +1413,12 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1233,10 +1438,12 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1256,10 +1463,12 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1279,10 +1488,12 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1302,10 +1513,12 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1325,10 +1538,12 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1348,10 +1563,12 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1371,10 +1588,12 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1394,10 +1613,12 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1417,10 +1638,12 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1440,10 +1663,12 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1463,10 +1688,12 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1488,10 +1715,12 @@
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1511,10 +1740,12 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1536,10 +1767,12 @@
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1559,10 +1792,12 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1582,10 +1817,12 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1605,10 +1842,12 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1628,10 +1867,12 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -1651,10 +1892,12 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -1674,10 +1917,12 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -1697,10 +1942,12 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1720,10 +1967,12 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1743,10 +1992,12 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1766,10 +2017,12 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1789,10 +2042,12 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -1814,10 +2069,12 @@
       <c r="F50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -1837,10 +2094,12 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -1860,10 +2119,12 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -1883,10 +2144,12 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1906,10 +2169,12 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1929,10 +2194,12 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -1980,8 +2247,9 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{2A6625B6-667E-4C16-B250-994A3DAAC327}"/>
     <hyperlink ref="I3:I55" r:id="rId2" display="ari@gmail.com" xr:uid="{8034EC17-0212-4C8B-8BC5-9A4BCACB9998}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{2653CCCE-E546-4219-901A-90E6137125C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>